--- a/precioplata.xlsx
+++ b/precioplata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D681"/>
+  <dimension ref="A1:D697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15403,6 +15403,358 @@
         </is>
       </c>
     </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>21/03/2023 23:01</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Germania</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27.68 </t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Agotado Temporalmente	</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>21/03/2023 23:01</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>American Eagle</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>34.88</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Preventa  </t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>21/03/2023 23:01</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Panda</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>33.64</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>21/03/2023 23:01</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Wedge Tailed</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Preventa  </t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>21/03/2023 23:01</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Koala</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Preventa  </t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>21/03/2023 23:01</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Krugerrand</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Preventa  </t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>21/03/2023 23:01</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Britannia</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>21/03/2023 23:01</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Filarmonica</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>25/03/2023 18:50</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Germania</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30.67 </t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Agotado Temporalmente	</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>25/03/2023 18:50</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>American Eagle</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Preventa  </t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>25/03/2023 18:50</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Panda</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>25/03/2023 18:50</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Wedge Tailed</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Preventa  </t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>25/03/2023 18:50</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Koala</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>225.88</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>25/03/2023 18:50</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Krugerrand</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Preventa  </t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>25/03/2023 18:50</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Britannia</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>25/03/2023 18:50</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Filarmonica</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/precioplata.xlsx
+++ b/precioplata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D697"/>
+  <dimension ref="A1:D705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15755,6 +15755,182 @@
         </is>
       </c>
     </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>07/04/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Germania</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29.76 </t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Agotado Temporalmente	</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>07/04/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>American Eagle</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>07/04/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Panda</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>35.65</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>07/04/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Wedge Tailed</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>07/04/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Koala</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>07/04/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Krugerrand</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>07/04/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Britannia</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>07/04/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Filarmonica</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/precioplata.xlsx
+++ b/precioplata.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D705"/>
+  <dimension ref="A1:D713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15931,6 +15931,182 @@
         </is>
       </c>
     </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>07/06/2023 23:56</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Germania</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>1927.2</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>07/06/2023 23:56</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>American Eagle</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>07/06/2023 23:56</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Panda</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>07/06/2023 23:56</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Wedge Tailed</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>1927.2</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Agotado Temporalmente	</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>07/06/2023 23:56</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Koala</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>229.31</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>07/06/2023 23:56</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Krugerrand</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>07/06/2023 23:56</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Britannia</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>229.31</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>07/06/2023 23:56</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Filarmonica</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/precioplata.xlsx
+++ b/precioplata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D713"/>
+  <dimension ref="A1:D739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16107,6 +16107,578 @@
         </is>
       </c>
     </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Filarmonica</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Toro y Oso</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Diosa Europa</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Britannia Orejas</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Britannia</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>1852.64</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Canguro</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>27.28</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Krugerrand</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Maple Leaf</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Wedge Tailed</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>216.71</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Koala</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>1184.06</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Dragon Rectangular</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Preventa  </t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>American Eagle</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:27</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Panda</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Filarmonica</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Toro y Oso</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>26.28</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Diosa Europa</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Britannia Orejas</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Britannia</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>1184.4</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Canguro</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>27.28</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Krugerrand</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Maple Leaf</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Wedge Tailed</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>1853.17</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Koala</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27.58 </t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Dragon Rectangular</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Preventa  </t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>American Eagle</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:32</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Panda</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>30.54</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/precioplata.xlsx
+++ b/precioplata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D739"/>
+  <dimension ref="A1:D752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16679,6 +16679,292 @@
         </is>
       </c>
     </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Filarmonica</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Toro y Oso</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Diosa Europa</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Britannia Orejas</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Britannia</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>618.49</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Canguro</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Krugerrand</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Maple Leaf</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Wedge Tailed</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>471.65</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Koala</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>305.1</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Fuera de Stock	</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Dragon Rectangular</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Preventa  </t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>American Eagle</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:41</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Panda</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t xml:space="preserve">		Disponible  </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
